--- a/超话情况.xlsx
+++ b/超话情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027BAA01-8759-4D15-BC24-D98DAD765222}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66623C27-8F01-4A25-93CF-3E1667449CB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>金珉周 DOUBLE SUADE 反光手幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.24/7.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUEST/金钟炫 CHERISH JR 反光手幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,18 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.15/7.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周边名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入金截止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接受箱在贩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.4/7.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删帖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金宇硕*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南道贤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +139,14 @@
   </si>
   <si>
     <t>金宇硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李洗赈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李翰洁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,12 +230,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8D19E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -348,35 +330,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,23 +351,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,9 +373,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,192 +662,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7">
-        <v>6.28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
-        <v>6.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>32</v>
+      <c r="C23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/超话情况.xlsx
+++ b/超话情况.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66623C27-8F01-4A25-93CF-3E1667449CB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EC9CED-55C6-40A0-AD0E-AFF52B90117E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>金珉周 DOUBLE SUADE 反光手幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,30 @@
   </si>
   <si>
     <t>李翰洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋亨俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李大辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贩卖机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedVelvet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金昇勋Seunghun超话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +243,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +295,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -330,14 +368,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -366,6 +422,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,8 +435,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -662,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -684,7 +744,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -692,61 +752,61 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
@@ -766,37 +826,37 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
+      <c r="A24" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -821,6 +881,34 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +916,10 @@
     <mergeCell ref="A2:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A37" r:id="rId1" display="https://weibo.com/p/100808575631bf9d34188fd7c29bd5ea14d171" xr:uid="{BF702F11-55C0-45DF-A51B-97DFC1D3EB27}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/超话情况.xlsx
+++ b/超话情况.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EC9CED-55C6-40A0-AD0E-AFF52B90117E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E46B7-E9DE-45AF-9D98-E69961A3135A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>金珉周 DOUBLE SUADE 反光手幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,11 +166,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RedVelvet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金昇勋Seunghun超话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金辉映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裴珍映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OHMYGIRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文星伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金容仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金在奂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄铉辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedVelvet（垃圾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IU（奶茶）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -434,6 +466,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -722,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -888,27 +921,79 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +1002,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A37" r:id="rId1" display="https://weibo.com/p/100808575631bf9d34188fd7c29bd5ea14d171" xr:uid="{BF702F11-55C0-45DF-A51B-97DFC1D3EB27}"/>
+    <hyperlink ref="A38" r:id="rId1" display="https://weibo.com/p/100808575631bf9d34188fd7c29bd5ea14d171" xr:uid="{BF702F11-55C0-45DF-A51B-97DFC1D3EB27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/超话情况.xlsx
+++ b/超话情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E46B7-E9DE-45AF-9D98-E69961A3135A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C69D76D-9203-4E28-B3C6-B5BC4FDC5817}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>金珉周 DOUBLE SUADE 反光手幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>田雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李津宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李大辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接受箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,18 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金昇勋Seunghun超话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金辉映</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裴珍映</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OHMYGIRL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,19 +170,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金在奂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄铉辰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RedVelvet（垃圾）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IU（奶茶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆星材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裴珠泫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金辉映(SF9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金在奂(WANNA ONE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄旼炫(WANNA ONE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金昇勋Seunghun(CIX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裴珍映(WANNA ONE / CIX)</t>
+  </si>
+  <si>
+    <t>黄铉辰(Stray Kids)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金东贤(AB6IX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄(AB6IX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李大辉(AB6IX)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +307,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -425,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -457,6 +488,8 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,7 +499,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -755,15 +787,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
@@ -777,7 +809,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -785,61 +817,61 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
@@ -852,15 +884,15 @@
         <v>15</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,57 +900,57 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,71 +961,101 @@
         <v>15</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>37</v>
+      <c r="A39" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
+      <c r="A40" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
